--- a/data/trans_bre/P19C05-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C05-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.989645567603813</v>
+        <v>-1.081804896687332</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.133005626469704</v>
+        <v>1.176131951903036</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.102603399699604</v>
+        <v>-4.861847925075965</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.002829565635422</v>
+        <v>5.124223695088227</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.06715851758624844</v>
+        <v>-0.03470785370992491</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0363298803671841</v>
+        <v>0.03798835682211318</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2083466437931843</v>
+        <v>-0.2024424901173328</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2452951914953952</v>
+        <v>0.2477918953387323</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.479135253771983</v>
+        <v>7.429086868531956</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.719631955899201</v>
+        <v>9.777208046165027</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.107947028209195</v>
+        <v>5.294051264774871</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.61431687418304</v>
+        <v>12.4212334388999</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3077988009678698</v>
+        <v>0.3141099615455504</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3861463080514222</v>
+        <v>0.3873154123899556</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2797517270515659</v>
+        <v>0.2891319727185727</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8485583336519926</v>
+        <v>0.8127994491920847</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.256183020870598</v>
+        <v>-1.155207049125685</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.425108924212797</v>
+        <v>-2.256958384730594</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.365891225677905</v>
+        <v>-1.529627151165352</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.524634313216156</v>
+        <v>-2.461986853936835</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1443888862341467</v>
+        <v>-0.1320311114042136</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2097372424822637</v>
+        <v>-0.1959387967726975</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1334505887194063</v>
+        <v>-0.1558323876212862</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2430001292355778</v>
+        <v>-0.2365252846605759</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.924003959901799</v>
+        <v>3.086524784672944</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.996183101636432</v>
+        <v>2.082251282146157</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.9085408073493</v>
+        <v>2.612918641922445</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8927048489362688</v>
+        <v>0.8259906650382595</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4556493429281134</v>
+        <v>0.4872758797705309</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2205885646578394</v>
+        <v>0.2199102929254829</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3991817888641231</v>
+        <v>0.328856955522896</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1078631346936888</v>
+        <v>0.1049953717493471</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.5095083836057612</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.40055957390377</v>
+        <v>-1.400559573903773</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1148140816184506</v>
@@ -849,7 +849,7 @@
         <v>-0.06625533866673013</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1685429240730312</v>
+        <v>-0.1685429240730315</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.193574662178002</v>
+        <v>-5.481906938170207</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.63007531378827</v>
+        <v>-6.068157693302053</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.051756831857853</v>
+        <v>-3.920608628932315</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.101571742045587</v>
+        <v>-3.947900550924802</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4103666465418595</v>
+        <v>-0.4297200142051779</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4952971510369408</v>
+        <v>-0.5250244070979748</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4299260955638129</v>
+        <v>-0.4212608669535842</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4191031686221653</v>
+        <v>-0.4077493873991363</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.894364624633154</v>
+        <v>3.094293429878294</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.865740109762725</v>
+        <v>2.962712258557335</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.96553690032084</v>
+        <v>3.092751398769439</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.030030482445218</v>
+        <v>1.056069737257806</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3448390628474651</v>
+        <v>0.3435815762608678</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4385270102643927</v>
+        <v>0.4321007060305337</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5014908066834949</v>
+        <v>0.4942643363251685</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1550443268895145</v>
+        <v>0.1465828318379412</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.98653673430667</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.643858238774612</v>
+        <v>1.643858238774611</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1870058092111553</v>
@@ -949,7 +949,7 @@
         <v>0.09253917867609333</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1582568754933169</v>
+        <v>0.1582568754933168</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6053769819514327</v>
+        <v>0.7020556268893853</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.057515129329373</v>
+        <v>1.40812184369029</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.801528899852755</v>
+        <v>-0.6966220596220464</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1359261359936328</v>
+        <v>0.3710069204534251</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03987705408568106</v>
+        <v>0.04907701555416637</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06534717346809642</v>
+        <v>0.09078288413500669</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.07209921823705004</v>
+        <v>-0.06289980070146875</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.008918579417586135</v>
+        <v>0.03254300267940126</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.718921048671882</v>
+        <v>4.490708650265328</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.212717982132982</v>
+        <v>5.31937099533171</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.485790202923192</v>
+        <v>2.707965069711557</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.913359409344658</v>
+        <v>2.996733118964158</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3765439869809626</v>
+        <v>0.3569383547833876</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.374819597496663</v>
+        <v>0.3907942594958941</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2533303341500187</v>
+        <v>0.2768646674323784</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3017786836118154</v>
+        <v>0.3173392499487751</v>
       </c>
     </row>
     <row r="16">
